--- a/Projects/GSKRU/Data/gsk_set_up.xlsx
+++ b/Projects/GSKRU/Data/gsk_set_up.xlsx
@@ -5,13 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Functional KPIs" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$L$4</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$M$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$M$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Functional KPIs'!$A$1:$M$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -34,6 +36,9 @@
     <t xml:space="preserve">Scene type / Tasks</t>
   </si>
   <si>
+    <t xml:space="preserve">Location type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Include Stacking</t>
   </si>
   <si>
@@ -61,34 +66,19 @@
     <t xml:space="preserve">Include POSM</t>
   </si>
   <si>
+    <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclude</t>
+  </si>
+  <si>
     <t xml:space="preserve">Facings SOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Pain Main Shelf, Oral Main Shelf, Respiratory Main Shelf, NRT Main Shelf, Other Main Shelf, Pain Main Shelf - Grcy, Oral Main Shelf - Grcy, NRT Main Shelf – Grcy, Wellness Main Shelf, Wellness Main Shelf - Grcy, Pain Main Shelf - Live, Oral Main Shelf - Live, Wellness Main Shelf - Live</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adult,Child,Denture,NRT,Sensitive Toothpaste,Topical,Osteo,Pain Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include </t>
-  </si>
-  <si>
     <t xml:space="preserve">Linear SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adult,Child,Topical,Osteo,Pain Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSK_LAYOUT_COMPLIANCE_BLOCK</t>
   </si>
 </sst>
 </file>
@@ -137,7 +127,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,12 +138,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF993366"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -205,7 +189,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -227,6 +211,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -235,31 +239,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -343,28 +323,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="13" style="1" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="8.7"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.8218623481781"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.8218623481781"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.5101214574899"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="20.7935222672065"/>
+    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="9.82591093117409"/>
+    <col collapsed="false" hidden="false" max="1025" min="1016" style="0" width="9.82591093117409"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="45.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -377,7 +354,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -386,66 +363,62 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" s="5" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="9" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="10" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="0"/>
       <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
@@ -453,24 +426,36 @@
         <v>14</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="M3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="ALZ3" s="0"/>
+      <c r="AMA3" s="0"/>
+      <c r="AMB3" s="0"/>
+      <c r="AMC3" s="0"/>
+      <c r="AMD3" s="0"/>
+      <c r="AME3" s="0"/>
+      <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="0"/>
       <c r="E4" s="7" t="s">
         <v>15</v>
       </c>
@@ -478,32 +463,29 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="M4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="ALZ4" s="0"/>
+      <c r="AMA4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:L4"/>
+  <autoFilter ref="A1:M2"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/GSKRU/Data/gsk_set_up.xlsx
+++ b/Projects/GSKRU/Data/gsk_set_up.xlsx
@@ -5,15 +5,26 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Functional KPIs" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Functional KPIs All Store" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Functional KPIs Main Shelf" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Functional KPIs Secondary Shelf" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$M$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$M$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Functional KPIs'!$A$1:$M$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs All Store'!$A$1:$M$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs Main Shelf'!$A$1:$M$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs Secondary Shelf'!$A$1:$M$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs All Store'!$A$1:$M$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Functional KPIs All Store'!$A$1:$M$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Functional KPIs All Store'!$A$1:$M$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Functional KPIs All Store'!$A$1:$M$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Functional KPIs All Store'!$A$1:$M$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs Main Shelf'!$A$1:$M$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Functional KPIs Main Shelf'!$A$1:$M$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs Secondary Shelf'!$A$1:$M$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Functional KPIs Secondary Shelf'!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="20">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -79,6 +90,12 @@
   </si>
   <si>
     <t xml:space="preserve">Linear SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary Shelf</t>
   </si>
 </sst>
 </file>
@@ -318,6 +335,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -325,7 +350,7 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
@@ -333,15 +358,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.8218623481781"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.8218623481781"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="22.5101214574899"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="20.7935222672065"/>
-    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="9.82591093117409"/>
-    <col collapsed="false" hidden="false" max="1025" min="1016" style="0" width="9.82591093117409"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.0485829959514"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.7651821862348"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.3076923076923"/>
+    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="16.9109311740891"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="27.8785425101215"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="25.8218623481781"/>
+    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="12.1133603238866"/>
+    <col collapsed="false" hidden="false" max="1025" min="1016" style="0" width="12.1133603238866"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="45.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -492,4 +517,312 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="1:65536"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.0485829959514"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.7651821862348"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.3076923076923"/>
+    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="16.9109311740891"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="27.8785425101215"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="25.8218623481781"/>
+    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="12.1133603238866"/>
+    <col collapsed="false" hidden="false" max="1025" min="1016" style="0" width="12.1133603238866"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="true" ht="45.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="10" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="M2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="M3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="ALZ3" s="0"/>
+      <c r="AMA3" s="0"/>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <autoFilter ref="A1:M1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="1:65536"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.0485829959514"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.7651821862348"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.3076923076923"/>
+    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="16.9109311740891"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="27.8785425101215"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="25.8218623481781"/>
+    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="12.1133603238866"/>
+    <col collapsed="false" hidden="false" max="1025" min="1016" style="0" width="12.1133603238866"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="true" ht="45.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="M2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="M3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="ALZ3" s="0"/>
+      <c r="AMA3" s="0"/>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <autoFilter ref="A1:M1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Projects/GSKRU/Data/gsk_set_up.xlsx
+++ b/Projects/GSKRU/Data/gsk_set_up.xlsx
@@ -5,15 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Functional KPIs All Store" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Functional KPIs Main Shelf" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Functional KPIs Secondary Shelf" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Functional KPIs Local" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs All Store'!$A$1:$M$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs Local'!$A$1:$M$1</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs Main Shelf'!$A$1:$M$1</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs Secondary Shelf'!$A$1:$M$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs All Store'!$A$1:$M$2</definedName>
@@ -21,10 +23,13 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Functional KPIs All Store'!$A$1:$M$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Functional KPIs All Store'!$A$1:$M$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Functional KPIs All Store'!$A$1:$M$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Functional KPIs All Store'!$A$1:$M$2</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs Main Shelf'!$A$1:$M$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Functional KPIs Main Shelf'!$A$1:$M$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Functional KPIs Main Shelf'!$A$1:$M$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs Secondary Shelf'!$A$1:$M$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Functional KPIs Secondary Shelf'!$A$1:$M$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Functional KPIs Secondary Shelf'!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="22">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -96,6 +101,12 @@
   </si>
   <si>
     <t xml:space="preserve">Secondary Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toothpaste, Toothbrush, Denture Care</t>
   </si>
 </sst>
 </file>
@@ -343,6 +354,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -358,15 +373,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.0485829959514"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.8785425101215"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.7651821862348"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.3076923076923"/>
-    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="16.9109311740891"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="27.8785425101215"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="25.8218623481781"/>
-    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="12.1133603238866"/>
-    <col collapsed="false" hidden="false" max="1025" min="1016" style="0" width="12.1133603238866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="45.1336032388664"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.1619433198381"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.0242914979757"/>
+    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="18.165991902834"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.9352226720648"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="27.6518218623482"/>
+    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="13.0242914979757"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="45.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -534,15 +548,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.0485829959514"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.8785425101215"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.7651821862348"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.3076923076923"/>
-    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="16.9109311740891"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="27.8785425101215"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="25.8218623481781"/>
-    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="12.1133603238866"/>
-    <col collapsed="false" hidden="false" max="1025" min="1016" style="0" width="12.1133603238866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="45.1336032388664"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.1619433198381"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.0242914979757"/>
+    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="18.165991902834"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.9352226720648"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="27.6518218623482"/>
+    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="13.0242914979757"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="45.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -680,7 +693,7 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
@@ -688,15 +701,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="42.0485829959514"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.8785425101215"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.7651821862348"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.3076923076923"/>
-    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="16.9109311740891"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="27.8785425101215"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="25.8218623481781"/>
-    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="12.1133603238866"/>
-    <col collapsed="false" hidden="false" max="1025" min="1016" style="0" width="12.1133603238866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="45.1336032388664"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.1619433198381"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.0242914979757"/>
+    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="18.165991902834"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.9352226720648"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="27.6518218623482"/>
+    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="13.0242914979757"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="45.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -809,6 +821,131 @@
       <c r="ALZ3" s="0"/>
       <c r="AMA3" s="0"/>
     </row>
+    <row r="1048572" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <autoFilter ref="A1:M1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="1:65536"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="45.1336032388664"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.1619433198381"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.0242914979757"/>
+    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="18.165991902834"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.9352226720648"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="27.6518218623482"/>
+    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="13.0242914979757"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="true" ht="45.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Projects/GSKRU/Data/gsk_set_up.xlsx
+++ b/Projects/GSKRU/Data/gsk_set_up.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="23">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve">Toothpaste, Toothbrush, Denture Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRA</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -540,9 +543,9 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -849,7 +852,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -944,6 +947,29 @@
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Projects/GSKRU/Data/gsk_set_up.xlsx
+++ b/Projects/GSKRU/Data/gsk_set_up.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Functional KPIs All Store" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,12 +24,16 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Functional KPIs All Store'!$A$1:$M$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Functional KPIs All Store'!$A$1:$M$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Functional KPIs All Store'!$A$1:$M$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Functional KPIs All Store'!$A$1:$M$2</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs Main Shelf'!$A$1:$M$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Functional KPIs Main Shelf'!$A$1:$M$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Functional KPIs Main Shelf'!$A$1:$M$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Functional KPIs Main Shelf'!$A$1:$M$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs Secondary Shelf'!$A$1:$M$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Functional KPIs Secondary Shelf'!$A$1:$M$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Functional KPIs Secondary Shelf'!$A$1:$M$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Functional KPIs Secondary Shelf'!$A$1:$M$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs Local'!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="24">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -89,6 +93,9 @@
   </si>
   <si>
     <t xml:space="preserve">Exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOUTHWASHOTHER</t>
   </si>
   <si>
     <t xml:space="preserve">Facings SOS</t>
@@ -368,22 +375,23 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="45.1336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.1619433198381"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.0242914979757"/>
-    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="18.165991902834"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.9352226720648"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="27.6518218623482"/>
-    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="13.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="48.5587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.9068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.8502024291498"/>
+    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="19.4251012145749"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="32.1052631578947"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="29.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="13.9392712550607"/>
+    <col collapsed="false" hidden="false" max="1025" min="1016" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="45.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -447,7 +455,9 @@
         <v>15</v>
       </c>
       <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="6" t="s">
@@ -456,7 +466,7 @@
     </row>
     <row r="3" s="10" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -474,7 +484,9 @@
         <v>15</v>
       </c>
       <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="J3" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="K3" s="12"/>
       <c r="M3" s="6" t="s">
         <v>15</v>
@@ -493,7 +505,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -511,7 +523,9 @@
         <v>15</v>
       </c>
       <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="J4" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="K4" s="12"/>
       <c r="M4" s="6" t="s">
         <v>15</v>
@@ -543,22 +557,23 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="45.1336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.1619433198381"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.0242914979757"/>
-    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="18.165991902834"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.9352226720648"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="27.6518218623482"/>
-    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="13.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="48.5587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.9068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.8502024291498"/>
+    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="19.4251012145749"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="32.1052631578947"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="29.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="13.9392712550607"/>
+    <col collapsed="false" hidden="false" max="1025" min="1016" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="45.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -604,12 +619,12 @@
     </row>
     <row r="2" s="10" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
@@ -624,7 +639,9 @@
         <v>15</v>
       </c>
       <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="J2" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="K2" s="12"/>
       <c r="M2" s="6" t="s">
         <v>15</v>
@@ -641,14 +658,14 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>15</v>
@@ -663,7 +680,9 @@
         <v>15</v>
       </c>
       <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="J3" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="K3" s="12"/>
       <c r="M3" s="6" t="s">
         <v>15</v>
@@ -696,22 +715,23 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="45.1336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.1619433198381"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.0242914979757"/>
-    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="18.165991902834"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.9352226720648"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="27.6518218623482"/>
-    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="13.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="48.5587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.9068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.8502024291498"/>
+    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="19.4251012145749"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="32.1052631578947"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="29.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="13.9392712550607"/>
+    <col collapsed="false" hidden="false" max="1025" min="1016" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="45.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -755,14 +775,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="10" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>14</v>
@@ -777,7 +797,9 @@
         <v>15</v>
       </c>
       <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="J2" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="K2" s="12"/>
       <c r="M2" s="6" t="s">
         <v>15</v>
@@ -794,14 +816,14 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>15</v>
@@ -816,7 +838,9 @@
         <v>15</v>
       </c>
       <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="J3" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="K3" s="12"/>
       <c r="M3" s="6" t="s">
         <v>15</v>
@@ -849,22 +873,23 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="45.1336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="34.1619433198381"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.0242914979757"/>
-    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="18.165991902834"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="29.9352226720648"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="27.6518218623482"/>
-    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="13.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="48.5587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.9068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.8502024291498"/>
+    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="19.4251012145749"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="32.1052631578947"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="29.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="13.9392712550607"/>
+    <col collapsed="false" hidden="false" max="1025" min="1016" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="45.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -908,9 +933,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="10" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -928,10 +953,12 @@
         <v>15</v>
       </c>
       <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="J2" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="K2" s="12"/>
       <c r="L2" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>15</v>
@@ -950,22 +977,25 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>15</v>

--- a/Projects/GSKRU/Data/gsk_set_up.xlsx
+++ b/Projects/GSKRU/Data/gsk_set_up.xlsx
@@ -25,15 +25,19 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Functional KPIs All Store'!$A$1:$M$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Functional KPIs All Store'!$A$1:$M$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Functional KPIs All Store'!$A$1:$M$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Functional KPIs All Store'!$A$1:$M$2</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs Main Shelf'!$A$1:$M$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Functional KPIs Main Shelf'!$A$1:$M$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Functional KPIs Main Shelf'!$A$1:$M$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Functional KPIs Main Shelf'!$A$1:$M$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Functional KPIs Main Shelf'!$A$1:$M$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs Secondary Shelf'!$A$1:$M$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Functional KPIs Secondary Shelf'!$A$1:$M$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Functional KPIs Secondary Shelf'!$A$1:$M$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Functional KPIs Secondary Shelf'!$A$1:$M$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Functional KPIs Secondary Shelf'!$A$1:$M$1</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs Local'!$A$1:$M$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Functional KPIs Local'!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -45,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="25">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -87,6 +91,9 @@
   </si>
   <si>
     <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Shelf, Secondary Shelf</t>
   </si>
   <si>
     <t xml:space="preserve">Include </t>
@@ -375,23 +382,23 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="48.5587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.9068825910931"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.8502024291498"/>
-    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="32.1052631578947"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="29.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="13.9392712550607"/>
-    <col collapsed="false" hidden="false" max="1025" min="1016" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.2186234817814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="39.6477732793522"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="39.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.9068825910931"/>
+    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="20.9109311740891"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="34.5060728744939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="31.8785425101215"/>
+    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1025" min="1016" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="45.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -435,61 +442,65 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="9" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" s="10" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="0"/>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" s="12"/>
       <c r="M3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="ALZ3" s="0"/>
       <c r="AMA3" s="0"/>
@@ -505,30 +516,32 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
-      <c r="D4" s="0"/>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="12"/>
       <c r="M4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="ALZ4" s="0"/>
       <c r="AMA4" s="0"/>
@@ -560,20 +573,20 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="48.5587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.9068825910931"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.8502024291498"/>
-    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="32.1052631578947"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="29.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="13.9392712550607"/>
-    <col collapsed="false" hidden="false" max="1025" min="1016" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.2186234817814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="39.6477732793522"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="39.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.9068825910931"/>
+    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="20.9109311740891"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="34.5060728744939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="31.8785425101215"/>
+    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1025" min="1016" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="45.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -619,32 +632,32 @@
     </row>
     <row r="2" s="10" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="12"/>
       <c r="M2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="ALZ2" s="0"/>
       <c r="AMA2" s="0"/>
@@ -660,32 +673,32 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" s="12"/>
       <c r="M3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="ALZ3" s="0"/>
       <c r="AMA3" s="0"/>
@@ -718,20 +731,20 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="48.5587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.9068825910931"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.8502024291498"/>
-    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="32.1052631578947"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="29.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="13.9392712550607"/>
-    <col collapsed="false" hidden="false" max="1025" min="1016" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.2186234817814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="39.6477732793522"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="39.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.9068825910931"/>
+    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="20.9109311740891"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="34.5060728744939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="31.8785425101215"/>
+    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1025" min="1016" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="45.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -777,32 +790,32 @@
     </row>
     <row r="2" s="10" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="12"/>
       <c r="M2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="ALZ2" s="0"/>
       <c r="AMA2" s="0"/>
@@ -818,32 +831,32 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" s="12"/>
       <c r="M3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="ALZ3" s="0"/>
       <c r="AMA3" s="0"/>
@@ -876,20 +889,20 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="48.5587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.9068825910931"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="36.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.8502024291498"/>
-    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="32.1052631578947"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="29.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="13.9392712550607"/>
-    <col collapsed="false" hidden="false" max="1025" min="1016" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.2186234817814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="39.6477732793522"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="39.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.9068825910931"/>
+    <col collapsed="false" hidden="false" max="11" min="5" style="1" width="20.9109311740891"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="34.5060728744939"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="31.8785425101215"/>
+    <col collapsed="false" hidden="false" max="1015" min="14" style="1" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1025" min="1016" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="45.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -935,33 +948,35 @@
     </row>
     <row r="2" s="10" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="0"/>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="ALZ2" s="0"/>
       <c r="AMA2" s="0"/>
@@ -977,28 +992,31 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="M3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1048571" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
